--- a/Resources/Passenger Car Occupant Safety Data.xlsx
+++ b/Resources/Passenger Car Occupant Safety Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\NTS\2017\Q3\Federal Review\To Web Team 67 files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fc1888e1acd26e6/Documents/GIT/Project1/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E562B027-FBC2-46DB-933E-EEFB5A357216}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="675" windowWidth="8685" windowHeight="8130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2-21" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
     <definedName name="HTML_PathFile" hidden="1">"C:\WINNT\Profiles\dmegret\Desktop\current tasks\nts2000\nts2000\HTML\Ch2_web\2-21.htm"</definedName>
     <definedName name="HTML_Title" hidden="1">"Table 2-21"</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -188,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0.00_)"/>
   </numFmts>
@@ -545,37 +546,65 @@
     </xf>
   </cellXfs>
   <cellStyles count="28">
-    <cellStyle name="Data" xfId="1"/>
-    <cellStyle name="Data Superscript" xfId="2"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="3"/>
-    <cellStyle name="Hed Side" xfId="4"/>
-    <cellStyle name="Hed Side bold" xfId="5"/>
-    <cellStyle name="Hed Side Regular" xfId="6"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="7"/>
-    <cellStyle name="Hed Top" xfId="8"/>
+    <cellStyle name="Data" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Data Superscript" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hed Side" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Hed Side bold" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Hed Top" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="9"/>
-    <cellStyle name="Normal_Sheet2" xfId="10"/>
-    <cellStyle name="Source Hed" xfId="11"/>
-    <cellStyle name="Source Superscript" xfId="12"/>
-    <cellStyle name="Source Text" xfId="13"/>
-    <cellStyle name="Superscript" xfId="14"/>
-    <cellStyle name="Table Data" xfId="15"/>
-    <cellStyle name="Table Head Top" xfId="16"/>
-    <cellStyle name="Table Hed Side" xfId="17"/>
-    <cellStyle name="Table Title" xfId="18"/>
-    <cellStyle name="Title Text" xfId="19"/>
-    <cellStyle name="Title Text 1" xfId="20"/>
-    <cellStyle name="Title Text 2" xfId="21"/>
-    <cellStyle name="Title-1" xfId="22"/>
-    <cellStyle name="Title-2" xfId="23"/>
-    <cellStyle name="Title-3" xfId="24"/>
-    <cellStyle name="Wrap" xfId="25"/>
-    <cellStyle name="Wrap Bold" xfId="26"/>
-    <cellStyle name="Wrap Title" xfId="27"/>
+    <cellStyle name="Normal 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal_Sheet2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Source Hed" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Source Superscript" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Source Text" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Superscript" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Table Data" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Table Head Top" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Table Hed Side" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Table Title" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Title Text" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Title Text 1" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Title Text 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Title-1" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Title-2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Title-3" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Wrap" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Wrap Bold" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Wrap Title" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{B0254248-5278-47D5-8104-3B860299F06E}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -907,7 +936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -917,15 +946,15 @@
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
-    <col min="2" max="17" width="8.7109375" style="1" customWidth="1"/>
-    <col min="18" max="239" width="7.5703125" style="1" customWidth="1"/>
-    <col min="240" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="25.81640625" style="1" customWidth="1"/>
+    <col min="2" max="17" width="8.7265625" style="1" customWidth="1"/>
+    <col min="18" max="239" width="7.54296875" style="1" customWidth="1"/>
+    <col min="240" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
@@ -1881,7 +1910,7 @@
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>15</v>
       </c>
@@ -1902,7 +1931,7 @@
       <c r="P21" s="26"/>
       <c r="Q21" s="26"/>
     </row>
-    <row r="22" spans="1:17" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -1921,7 +1950,7 @@
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
     </row>
-    <row r="23" spans="1:17" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>6</v>
       </c>
@@ -1942,7 +1971,7 @@
       <c r="P23" s="27"/>
       <c r="Q23" s="27"/>
     </row>
-    <row r="24" spans="1:17" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>9</v>
       </c>
@@ -1963,7 +1992,7 @@
       <c r="P24" s="28"/>
       <c r="Q24" s="28"/>
     </row>
-    <row r="25" spans="1:17" s="10" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" s="10" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>10</v>
       </c>
@@ -1984,7 +2013,7 @@
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
     </row>
-    <row r="26" spans="1:17" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>13</v>
       </c>
@@ -2005,7 +2034,7 @@
       <c r="P26" s="28"/>
       <c r="Q26" s="28"/>
     </row>
-    <row r="27" spans="1:17" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -2024,7 +2053,7 @@
       <c r="P27" s="30"/>
       <c r="Q27" s="30"/>
     </row>
-    <row r="28" spans="1:17" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>8</v>
       </c>
@@ -2045,7 +2074,7 @@
       <c r="P28" s="31"/>
       <c r="Q28" s="31"/>
     </row>
-    <row r="29" spans="1:17" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>11</v>
       </c>
@@ -2066,7 +2095,7 @@
       <c r="P29" s="32"/>
       <c r="Q29" s="32"/>
     </row>
-    <row r="30" spans="1:17" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>17</v>
       </c>
@@ -2087,7 +2116,7 @@
       <c r="P30" s="24"/>
       <c r="Q30" s="24"/>
     </row>
-    <row r="31" spans="1:17" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>12</v>
       </c>
@@ -2108,7 +2137,7 @@
       <c r="P31" s="24"/>
       <c r="Q31" s="24"/>
     </row>
-    <row r="32" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>14</v>
       </c>
@@ -2129,7 +2158,7 @@
       <c r="P32" s="24"/>
       <c r="Q32" s="24"/>
     </row>
-    <row r="33" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>16</v>
       </c>
